--- a/authorityList/DHARMA_PSNAuthorityTemplate_V01.xlsx
+++ b/authorityList/DHARMA_PSNAuthorityTemplate_V01.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Person" sheetId="1" r:id="rId4"/>
+    <sheet name="Person" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>Fields group</t>
   </si>
@@ -209,23 +212,72 @@
   </si>
   <si>
     <t>Distribution rights of the artefact</t>
+  </si>
+  <si>
+    <t>pallava000001</t>
+  </si>
+  <si>
+    <t>DHARMA</t>
+  </si>
+  <si>
+    <t>E. Francis</t>
+  </si>
+  <si>
+    <t>tfa</t>
+  </si>
+  <si>
+    <t>cc-0</t>
+  </si>
+  <si>
+    <t>tfa-melappaluvur</t>
+  </si>
+  <si>
+    <t>mayentirappōttaraiyār</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>cf. role e.g. king, etc. (TBC)</t>
+  </si>
+  <si>
+    <t>human, divine</t>
+  </si>
+  <si>
+    <t>donor$</t>
+  </si>
+  <si>
+    <t>zoteroShortTitle1$zoteroShortTitle2</t>
+  </si>
+  <si>
+    <t>tfaPallava036</t>
+  </si>
+  <si>
+    <t>ecrm:P129i_is_subject_of</t>
+  </si>
+  <si>
+    <t>pallava000002</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>ref. to other database (viaf, wikidata)</t>
+  </si>
+  <si>
+    <t>melkil000001</t>
+  </si>
+  <si>
+    <t>V. Gillet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -235,18 +287,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Calibri (Corps)"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -257,14 +304,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="1"/>
+      <b/>
+      <i/>
       <sz val="16"/>
       <color indexed="8"/>
       <name val="Calibri (Corps)"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -326,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -688,21 +735,6 @@
       </left>
       <right style="thick">
         <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
@@ -742,181 +774,136 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="8" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="9" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -925,31 +912,82 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffadb9ca"/>
-      <rgbColor rgb="fff4b083"/>
-      <rgbColor rgb="ff919191"/>
-      <rgbColor rgb="ffd6dce4"/>
-      <rgbColor rgb="ffe2efd9"/>
-      <rgbColor rgb="fffbe4d5"/>
-      <rgbColor rgb="fffef2cb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFADB9CA"/>
+      <rgbColor rgb="FFF4B083"/>
+      <rgbColor rgb="FF919191"/>
+      <rgbColor rgb="FFD6DCE4"/>
+      <rgbColor rgb="FFE2EFD9"/>
+      <rgbColor rgb="FFFBE4D5"/>
+      <rgbColor rgb="FFFEF2CB"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1148,7 +1186,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1167,7 +1205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1197,7 +1235,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1261,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1249,7 +1287,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1275,7 +1313,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1301,7 +1339,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1327,7 +1365,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1353,7 +1391,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1379,7 +1417,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1405,7 +1443,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1418,9 +1456,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1437,7 +1481,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1456,7 +1500,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1482,7 +1526,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1508,7 +1552,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1534,7 +1578,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1560,7 +1604,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1586,7 +1630,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1612,7 +1656,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1638,7 +1682,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1664,7 +1708,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1690,7 +1734,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1703,9 +1747,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1719,7 +1769,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1738,7 +1788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1768,7 +1818,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1794,7 +1844,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1820,7 +1870,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1846,7 +1896,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1872,7 +1922,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1898,7 +1948,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1924,7 +1974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1950,7 +2000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1976,7 +2026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1989,528 +2039,588 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AE10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AD7" sqref="AD7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="14.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="14.85" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="14.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6719" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.1719" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="10.8516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.3516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="12.8516" style="1" customWidth="1"/>
-    <col min="12" max="13" width="13.5" style="1" customWidth="1"/>
-    <col min="14" max="15" width="14.1719" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" style="1" customWidth="1"/>
+    <col min="12" max="13" width="13.42578125" style="1" customWidth="1"/>
+    <col min="14" max="15" width="14.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" customWidth="1"/>
     <col min="17" max="17" width="14" style="1" customWidth="1"/>
-    <col min="18" max="20" width="14.6719" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.8516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.6953" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.9922" style="1" customWidth="1"/>
-    <col min="24" max="24" width="22.2109" style="1" customWidth="1"/>
-    <col min="25" max="25" width="18.7422" style="1" customWidth="1"/>
-    <col min="26" max="26" width="18.9531" style="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5" style="1" customWidth="1"/>
-    <col min="28" max="28" width="13.3516" style="1" customWidth="1"/>
-    <col min="29" max="29" width="13.6719" style="1" customWidth="1"/>
-    <col min="30" max="30" width="14.5" style="1" customWidth="1"/>
-    <col min="31" max="31" width="11.6719" style="1" customWidth="1"/>
-    <col min="32" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="18" max="20" width="14.7109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.7109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="22" style="1" customWidth="1"/>
+    <col min="24" max="24" width="22.140625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="18.7109375" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19" style="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="13.28515625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="13.7109375" style="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" style="1" customWidth="1"/>
+    <col min="32" max="256" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:31" ht="21.95" customHeight="1">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="5"/>
-      <c r="J1" t="s" s="6">
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" t="s" s="9">
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" t="s" s="10">
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="11"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="47"/>
     </row>
-    <row r="2" ht="23" customHeight="1">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="20"/>
-      <c r="P2" t="s" s="21">
+    <row r="2" spans="1:31" ht="23.1" customHeight="1">
+      <c r="A2" s="30"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="24"/>
-      <c r="W2" t="s" s="25">
+      <c r="Q2" s="32"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="26"/>
-      <c r="Y2" t="s" s="25">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="26"/>
-      <c r="AA2" t="s" s="25">
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="26"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="7"/>
-      <c r="AE2" s="11"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="48"/>
+      <c r="AD2" s="44"/>
+      <c r="AE2" s="47"/>
     </row>
-    <row r="3" ht="68" customHeight="1">
-      <c r="A3" t="s" s="28">
+    <row r="3" spans="1:31" ht="68.099999999999994" customHeight="1">
+      <c r="A3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="29">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="30">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="30">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="30">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="30">
+      <c r="F3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="30">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="30">
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="I3" t="s" s="31">
+      <c r="I3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s" s="32">
+      <c r="J3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="K3" t="s" s="33">
+      <c r="K3" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="L3" t="s" s="33">
+      <c r="L3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="M3" t="s" s="33">
+      <c r="M3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="N3" t="s" s="33">
+      <c r="N3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="O3" t="s" s="33">
+      <c r="O3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="P3" t="s" s="30">
+      <c r="P3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q3" t="s" s="30">
+      <c r="Q3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="R3" t="s" s="30">
+      <c r="R3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="S3" t="s" s="30">
+      <c r="S3" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="T3" t="s" s="30">
+      <c r="T3" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="U3" t="s" s="30">
+      <c r="U3" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="V3" t="s" s="33">
+      <c r="V3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="W3" t="s" s="34">
+      <c r="W3" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="X3" t="s" s="34">
+      <c r="X3" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" t="s" s="35">
+      <c r="Y3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="Z3" t="s" s="35">
+      <c r="Z3" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" t="s" s="36">
+      <c r="AA3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="AB3" t="s" s="36">
+      <c r="AB3" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="AC3" t="s" s="30">
+      <c r="AC3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AD3" t="s" s="30">
+      <c r="AD3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AE3" t="s" s="30">
+      <c r="AE3" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" ht="97" customHeight="1">
-      <c r="A4" t="s" s="37">
+    <row r="4" spans="1:31" ht="96.95" customHeight="1">
+      <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s" s="38">
+      <c r="B4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C4" t="s" s="39">
+      <c r="C4" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D4" t="s" s="39">
+      <c r="D4" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s" s="39">
+      <c r="E4" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s" s="40">
+      <c r="F4" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G4" t="s" s="40">
+      <c r="G4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s" s="40">
+      <c r="H4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="I4" t="s" s="41">
+      <c r="I4" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="J4" t="s" s="42">
+      <c r="J4" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="K4" t="s" s="40">
+      <c r="K4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="L4" t="s" s="39">
+      <c r="L4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="M4" t="s" s="39">
+      <c r="M4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="N4" t="s" s="39">
+      <c r="N4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="O4" t="s" s="39">
+      <c r="O4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="P4" t="s" s="39">
+      <c r="P4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" t="s" s="39">
+      <c r="Q4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="R4" t="s" s="39">
+      <c r="R4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="S4" t="s" s="39">
+      <c r="S4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="T4" t="s" s="39">
+      <c r="T4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="U4" t="s" s="39">
+      <c r="U4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="V4" t="s" s="39">
+      <c r="V4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W4" t="s" s="39">
+      <c r="W4" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="X4" t="s" s="39">
+      <c r="X4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" t="s" s="39">
+      <c r="Y4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="Z4" t="s" s="39">
+      <c r="Z4" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="AA4" t="s" s="39">
+      <c r="AA4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AB4" t="s" s="39">
+      <c r="AB4" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="AC4" t="s" s="39">
+      <c r="AC4" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="AD4" t="s" s="40">
+      <c r="AD4" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="AE4" t="s" s="39">
+      <c r="AE4" s="17" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="43"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="43"/>
-      <c r="U5" s="43"/>
-      <c r="V5" s="43"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="44"/>
-      <c r="AC5" s="44"/>
-      <c r="AD5" s="44"/>
-      <c r="AE5" s="44"/>
+    <row r="5" spans="1:31" ht="15" customHeight="1">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" s="21">
+        <v>550</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>630</v>
+      </c>
+      <c r="R5" s="21">
+        <v>540</v>
+      </c>
+      <c r="S5" s="21">
+        <v>625</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="W5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA5" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="48"/>
-      <c r="AE6" s="48"/>
+    <row r="6" spans="1:31" ht="15" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="22"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="24"/>
+      <c r="AB6" s="25"/>
+      <c r="AC6" s="25"/>
+      <c r="AD6" s="25"/>
+      <c r="AE6" s="25"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="47"/>
-      <c r="Q7" s="47"/>
-      <c r="R7" s="47"/>
-      <c r="S7" s="47"/>
-      <c r="T7" s="47"/>
-      <c r="U7" s="47"/>
-      <c r="V7" s="47"/>
-      <c r="W7" s="47"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="47"/>
-      <c r="AA7" s="47"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48"/>
+    <row r="7" spans="1:31" ht="15" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="25"/>
+      <c r="Y7" s="25"/>
+      <c r="Z7" s="24"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="25"/>
+      <c r="AC7" s="25"/>
+      <c r="AD7" s="25"/>
+      <c r="AE7" s="25"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="47"/>
-      <c r="Q8" s="47"/>
-      <c r="R8" s="47"/>
-      <c r="S8" s="47"/>
-      <c r="T8" s="47"/>
-      <c r="U8" s="47"/>
-      <c r="V8" s="47"/>
-      <c r="W8" s="47"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="47"/>
-      <c r="AA8" s="47"/>
-      <c r="AB8" s="48"/>
-      <c r="AC8" s="48"/>
-      <c r="AD8" s="48"/>
-      <c r="AE8" s="48"/>
+    <row r="8" spans="1:31" ht="15" customHeight="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="25"/>
+      <c r="Y8" s="25"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="25"/>
+      <c r="AC8" s="25"/>
+      <c r="AD8" s="25"/>
+      <c r="AE8" s="25"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="47"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="47"/>
-      <c r="S9" s="47"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="47"/>
-      <c r="V9" s="47"/>
-      <c r="W9" s="47"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="47"/>
-      <c r="AA9" s="47"/>
-      <c r="AB9" s="48"/>
-      <c r="AC9" s="48"/>
-      <c r="AD9" s="48"/>
-      <c r="AE9" s="48"/>
+    <row r="9" spans="1:31" ht="15" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="25"/>
+      <c r="Y9" s="25"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="25"/>
+      <c r="AC9" s="25"/>
+      <c r="AD9" s="25"/>
+      <c r="AE9" s="25"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="47"/>
-      <c r="W10" s="47"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="47"/>
-      <c r="AA10" s="47"/>
-      <c r="AB10" s="48"/>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48"/>
-      <c r="AE10" s="48"/>
+    <row r="10" spans="1:31" ht="15" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
+      <c r="U10" s="24"/>
+      <c r="V10" s="24"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="25"/>
+      <c r="Y10" s="25"/>
+      <c r="Z10" s="24"/>
+      <c r="AA10" s="24"/>
+      <c r="AB10" s="25"/>
+      <c r="AC10" s="25"/>
+      <c r="AD10" s="25"/>
+      <c r="AE10" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="AC1:AE2"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:Z2"/>
     <mergeCell ref="AA2:AB2"/>
@@ -2520,10 +2630,9 @@
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="J1:V1"/>
     <mergeCell ref="W1:AB1"/>
-    <mergeCell ref="AC1:AE2"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup scale="72" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/authorityList/DHARMA_PSNAuthorityTemplate_V01.xlsx
+++ b/authorityList/DHARMA_PSNAuthorityTemplate_V01.xlsx
@@ -13,8 +13,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>manu francis</author>
+  </authors>
+  <commentList>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>manu francis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+@AJ
+Ne serait-ce pas plutôt le nom uniforme qu'il faut donner ici et pas celui d'un "file" particulier"?
+Ce peut être en effet le nom d'un file partciulier si on n'a qu'une seule occurrence de cette peronne.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
   <si>
     <t>Fields group</t>
   </si>
@@ -160,9 +196,6 @@
     <t>Define the language of the previous name</t>
   </si>
   <si>
-    <t>Qualify the previous name, value from a closed list</t>
-  </si>
-  <si>
     <t xml:space="preserve">Code to be defined depending our use </t>
   </si>
   <si>
@@ -181,9 +214,6 @@
     <t>Minimum date of Death</t>
   </si>
   <si>
-    <t>Equivalent of &lt;roleName&gt;</t>
-  </si>
-  <si>
     <t>Possibility to give information about a person's period of activity. Could be used for a biographic.</t>
   </si>
   <si>
@@ -193,9 +223,6 @@
     <t xml:space="preserve">Identifier of the text </t>
   </si>
   <si>
-    <t>Relationship to be defined according the Cidoc-crm: ecrm:P129i_is_subject_of</t>
-  </si>
-  <si>
     <t>Identifier of the person connected to the person described</t>
   </si>
   <si>
@@ -229,21 +256,6 @@
     <t>cc-0</t>
   </si>
   <si>
-    <t>tfa-melappaluvur</t>
-  </si>
-  <si>
-    <t>mayentirappōttaraiyār</t>
-  </si>
-  <si>
-    <t>Tamil</t>
-  </si>
-  <si>
-    <t>cf. role e.g. king, etc. (TBC)</t>
-  </si>
-  <si>
-    <t>human, divine</t>
-  </si>
-  <si>
     <t>donor$</t>
   </si>
   <si>
@@ -262,20 +274,47 @@
     <t>father</t>
   </si>
   <si>
-    <t>ref. to other database (viaf, wikidata)</t>
-  </si>
-  <si>
     <t>melkil000001</t>
   </si>
   <si>
     <t>V. Gillet</t>
+  </si>
+  <si>
+    <t>tfa-pallava-epigraphy</t>
+  </si>
+  <si>
+    <t>Mahendravarman I Pallava</t>
+  </si>
+  <si>
+    <t>Sanskrit</t>
+  </si>
+  <si>
+    <t>king</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>Qualify the previous name, value from a closed list [a permanent quality]</t>
+  </si>
+  <si>
+    <t>Equivalent of &lt;roleName&gt; [a list or roles played in his career]</t>
+  </si>
+  <si>
+    <t>Relationship to be defined according the Cidoc-crm: ecrm:P129i_is_subject_of [closed list of choices to be made]</t>
+  </si>
+  <si>
+    <t>Siṃhaviṣnu</t>
+  </si>
+  <si>
+    <t>VIAF</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -315,6 +354,19 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -848,6 +900,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,15 +953,9 @@
     <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2057,11 +2109,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="14.85" customHeight="1"/>
@@ -2097,88 +2149,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21.95" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="43" t="s">
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="45" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="46" t="s">
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="47"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="29"/>
     </row>
     <row r="2" spans="1:31" ht="23.1" customHeight="1">
-      <c r="A2" s="30"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="40"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="44"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="34"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="38"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="27" t="s">
+      <c r="W2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="27" t="s">
+      <c r="X2" s="32"/>
+      <c r="Y2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="27" t="s">
+      <c r="Z2" s="32"/>
+      <c r="AA2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="48"/>
-      <c r="AD2" s="44"/>
-      <c r="AE2" s="47"/>
+      <c r="AB2" s="32"/>
+      <c r="AC2" s="30"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="29"/>
     </row>
     <row r="3" spans="1:31" ht="68.099999999999994" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2313,138 +2365,140 @@
         <v>47</v>
       </c>
       <c r="M4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N4" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="O4" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="P4" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="R4" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="S4" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="T4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="V4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="W4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="X4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y4" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="Z4" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="X4" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z4" s="17" t="s">
-        <v>61</v>
       </c>
       <c r="AA4" s="17" t="s">
         <v>33</v>
       </c>
       <c r="AB4" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD4" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE4" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="AC4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD4" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="AE4" s="17" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H5" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>70</v>
-      </c>
       <c r="J5" s="22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K5" s="22" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="P5" s="21">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="Q5" s="21">
+        <v>625</v>
+      </c>
+      <c r="R5" s="21">
+        <v>560</v>
+      </c>
+      <c r="S5" s="21">
         <v>630</v>
       </c>
-      <c r="R5" s="21">
-        <v>540</v>
-      </c>
-      <c r="S5" s="21">
-        <v>625</v>
-      </c>
       <c r="T5" s="21" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="U5" s="21"/>
       <c r="V5" s="21" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="W5" s="21" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="X5" s="22" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="Y5" s="22" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="Z5" s="21" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="AA5" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB5" s="22"/>
+        <v>85</v>
+      </c>
+      <c r="AB5" s="22">
+        <v>52496262</v>
+      </c>
       <c r="AC5" s="22"/>
       <c r="AD5" s="22"/>
       <c r="AE5" s="22"/>
@@ -2459,10 +2513,18 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
+      <c r="J6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" s="22" t="s">
+        <v>79</v>
+      </c>
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
       <c r="P6" s="24"/>
@@ -2485,11 +2547,11 @@
     <row r="7" spans="1:31" ht="15" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="25" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="25" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -2636,5 +2698,6 @@
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/authorityList/DHARMA_PSNAuthorityTemplate_V01.xlsx
+++ b/authorityList/DHARMA_PSNAuthorityTemplate_V01.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
   <si>
     <t>Fields group</t>
   </si>
@@ -308,6 +308,18 @@
   </si>
   <si>
     <t>VIAF</t>
+  </si>
+  <si>
+    <t>pallava000003</t>
+  </si>
+  <si>
+    <t>pallava000004</t>
+  </si>
+  <si>
+    <t>pallava000005</t>
+  </si>
+  <si>
+    <t>pallava000006</t>
   </si>
 </sst>
 </file>
@@ -425,7 +437,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -826,13 +838,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -956,6 +981,8 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2110,10 +2137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+  <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="14.85" customHeight="1"/>
@@ -2505,8 +2532,10 @@
     </row>
     <row r="6" spans="1:31" ht="15" customHeight="1">
       <c r="A6" s="24"/>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="22"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -2546,22 +2575,22 @@
     </row>
     <row r="7" spans="1:31" ht="15" customHeight="1">
       <c r="A7" s="24"/>
-      <c r="B7" s="25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25" t="s">
-        <v>75</v>
-      </c>
+      <c r="B7" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="22"/>
+      <c r="J7" s="22" t="s">
+        <v>86</v>
+      </c>
       <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="P7" s="24"/>
@@ -2571,8 +2600,8 @@
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
       <c r="V7" s="24"/>
-      <c r="W7" s="24"/>
-      <c r="X7" s="25"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="50"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
@@ -2583,18 +2612,22 @@
     </row>
     <row r="8" spans="1:31" ht="15" customHeight="1">
       <c r="A8" s="24"/>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="22"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="22"/>
+      <c r="J8" s="22" t="s">
+        <v>87</v>
+      </c>
       <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
+      <c r="L8" s="50"/>
+      <c r="M8" s="50"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="24"/>
@@ -2604,8 +2637,8 @@
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
-      <c r="W8" s="24"/>
-      <c r="X8" s="25"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="50"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="24"/>
       <c r="AA8" s="24"/>
@@ -2616,18 +2649,22 @@
     </row>
     <row r="9" spans="1:31" ht="15" customHeight="1">
       <c r="A9" s="24"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="22"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="22"/>
+      <c r="J9" s="22" t="s">
+        <v>88</v>
+      </c>
       <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
+      <c r="L9" s="50"/>
+      <c r="M9" s="50"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="24"/>
@@ -2637,8 +2674,8 @@
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="25"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="50"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
@@ -2649,18 +2686,22 @@
     </row>
     <row r="10" spans="1:31" ht="15" customHeight="1">
       <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="22"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="22"/>
+      <c r="J10" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
+      <c r="L10" s="50"/>
+      <c r="M10" s="50"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="24"/>
@@ -2670,8 +2711,8 @@
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
-      <c r="W10" s="24"/>
-      <c r="X10" s="25"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="50"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="24"/>
       <c r="AA10" s="24"/>
@@ -2679,6 +2720,208 @@
       <c r="AC10" s="25"/>
       <c r="AD10" s="25"/>
       <c r="AE10" s="25"/>
+    </row>
+    <row r="11" spans="1:31" ht="15" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="50"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="24"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="50"/>
+      <c r="Y11" s="25"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="24"/>
+      <c r="AB11" s="25"/>
+      <c r="AC11" s="25"/>
+      <c r="AD11" s="25"/>
+      <c r="AE11" s="25"/>
+    </row>
+    <row r="12" spans="1:31" ht="15" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
+      <c r="U12" s="24"/>
+      <c r="V12" s="24"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="50"/>
+      <c r="Y12" s="25"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="25"/>
+      <c r="AC12" s="25"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="25"/>
+    </row>
+    <row r="13" spans="1:31" ht="15" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="24"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="25"/>
+      <c r="Y13" s="25"/>
+      <c r="Z13" s="24"/>
+      <c r="AA13" s="24"/>
+      <c r="AB13" s="25"/>
+      <c r="AC13" s="25"/>
+      <c r="AD13" s="25"/>
+      <c r="AE13" s="25"/>
+    </row>
+    <row r="14" spans="1:31" ht="15" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
+      <c r="U14" s="24"/>
+      <c r="V14" s="24"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="25"/>
+      <c r="Y14" s="25"/>
+      <c r="Z14" s="24"/>
+      <c r="AA14" s="24"/>
+      <c r="AB14" s="25"/>
+      <c r="AC14" s="25"/>
+      <c r="AD14" s="25"/>
+      <c r="AE14" s="25"/>
+    </row>
+    <row r="15" spans="1:31" ht="15" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+    </row>
+    <row r="16" spans="1:31" ht="15" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
+      <c r="U16" s="24"/>
+      <c r="V16" s="24"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="24"/>
+      <c r="AA16" s="24"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/authorityList/DHARMA_PSNAuthorityTemplate_V01.xlsx
+++ b/authorityList/DHARMA_PSNAuthorityTemplate_V01.xlsx
@@ -39,9 +39,129 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-@AJ
-Ne serait-ce pas plutôt le nom uniforme qu'il faut donner ici et pas celui d'un "file" particulier"?
+@AJ: Ne serait-ce pas plutôt le nom uniforme qu'il faut donner ici et pas celui d'un "file" particulier"?
 Ce peut être en effet le nom d'un file partciulier si on n'a qu'une seule occurrence de cette peronne.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>manu francis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+That is a permanent attribute/quality of the person</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>manu francis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+= list of the different roles played by the same person. Separate items with $ (no space before, nor after)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>manu francis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+To be displayed as a § </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>manu francis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+e.g. "tfaPallava036"
+Not to be filled in manually. Harvest file names which have ref="pallava000002"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>manu francis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Define a closed list of possible ecrm and add a scrolling menu to select value</t>
         </r>
       </text>
     </comment>
@@ -50,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>Fields group</t>
   </si>
@@ -214,9 +334,6 @@
     <t>Minimum date of Death</t>
   </si>
   <si>
-    <t>Possibility to give information about a person's period of activity. Could be used for a biographic.</t>
-  </si>
-  <si>
     <t>Possibility to give bibliographic information related to the person</t>
   </si>
   <si>
@@ -289,21 +406,9 @@
     <t>Sanskrit</t>
   </si>
   <si>
-    <t>king</t>
-  </si>
-  <si>
     <t>human</t>
   </si>
   <si>
-    <t>Qualify the previous name, value from a closed list [a permanent quality]</t>
-  </si>
-  <si>
-    <t>Equivalent of &lt;roleName&gt; [a list or roles played in his career]</t>
-  </si>
-  <si>
-    <t>Relationship to be defined according the Cidoc-crm: ecrm:P129i_is_subject_of [closed list of choices to be made]</t>
-  </si>
-  <si>
     <t>Siṃhaviṣnu</t>
   </si>
   <si>
@@ -320,6 +425,30 @@
   </si>
   <si>
     <t>pallava000006</t>
+  </si>
+  <si>
+    <t>Equivalent of &lt;roleName&gt;</t>
+  </si>
+  <si>
+    <t>Relationship to be defined according the Cidoc-crm: ecrm:P129i_is_subject_of</t>
+  </si>
+  <si>
+    <t>Qualify the previous name, value from a closed list</t>
+  </si>
+  <si>
+    <t>king$Pallava</t>
+  </si>
+  <si>
+    <t>melkil000002</t>
+  </si>
+  <si>
+    <t>melkil000003</t>
+  </si>
+  <si>
+    <t>melkil000004</t>
+  </si>
+  <si>
+    <t>Possibility to give information (free text) about a person's period of activity. Could be used for a biographic.</t>
   </si>
 </sst>
 </file>
@@ -925,6 +1054,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,8 +1112,6 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2139,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="14.85" customHeight="1"/>
@@ -2176,88 +2305,88 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="21.95" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="47" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="37"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="37"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="37"/>
-      <c r="V1" s="37"/>
-      <c r="W1" s="48" t="s">
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="27" t="s">
+      <c r="X1" s="30"/>
+      <c r="Y1" s="30"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="30"/>
+      <c r="AC1" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="29"/>
+      <c r="AD1" s="30"/>
+      <c r="AE1" s="31"/>
     </row>
     <row r="2" spans="1:31" ht="23.1" customHeight="1">
-      <c r="A2" s="34"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="44"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="46"/>
       <c r="J2" s="2"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="3"/>
       <c r="O2" s="4"/>
-      <c r="P2" s="35" t="s">
+      <c r="P2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="5"/>
-      <c r="W2" s="31" t="s">
+      <c r="W2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="X2" s="32"/>
-      <c r="Y2" s="31" t="s">
+      <c r="X2" s="34"/>
+      <c r="Y2" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="31" t="s">
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="AB2" s="32"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="29"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="32"/>
+      <c r="AD2" s="30"/>
+      <c r="AE2" s="31"/>
     </row>
     <row r="3" spans="1:31" ht="68.099999999999994" customHeight="1">
       <c r="A3" s="6" t="s">
@@ -2354,7 +2483,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="96.95" customHeight="1">
+    <row r="4" spans="1:31" ht="146.25" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>38</v>
       </c>
@@ -2392,7 +2521,7 @@
         <v>47</v>
       </c>
       <c r="M4" s="17" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="N4" s="17" t="s">
         <v>48</v>
@@ -2413,81 +2542,81 @@
         <v>53</v>
       </c>
       <c r="T4" s="17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="U4" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="W4" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="X4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="X4" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y4" s="17" t="s">
+      <c r="Z4" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="Z4" s="17" t="s">
-        <v>58</v>
       </c>
       <c r="AA4" s="17" t="s">
         <v>33</v>
       </c>
       <c r="AB4" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC4" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AC4" s="17" t="s">
+      <c r="AD4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="AD4" s="18" t="s">
+      <c r="AE4" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="AE4" s="17" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="15" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G5" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H5" s="22" t="s">
+      <c r="J5" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="J5" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="K5" s="22" t="s">
+      <c r="L5" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="22" t="s">
-        <v>78</v>
-      </c>
       <c r="M5" s="22" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N5" s="22"/>
       <c r="O5" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P5" s="21">
         <v>540</v>
@@ -2502,26 +2631,26 @@
         <v>630</v>
       </c>
       <c r="T5" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U5" s="21"/>
       <c r="V5" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="W5" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="W5" s="21" t="s">
+      <c r="X5" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="Y5" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Z5" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="Z5" s="21" t="s">
-        <v>73</v>
-      </c>
       <c r="AA5" s="21" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AB5" s="22">
         <v>52496262</v>
@@ -2533,26 +2662,28 @@
     <row r="6" spans="1:31" ht="15" customHeight="1">
       <c r="A6" s="24"/>
       <c r="B6" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="22"/>
-      <c r="D6" s="25"/>
+      <c r="D6" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="26"/>
       <c r="J6" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K6" s="25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="N6" s="25"/>
       <c r="O6" s="25"/>
@@ -2576,21 +2707,23 @@
     <row r="7" spans="1:31" ht="15" customHeight="1">
       <c r="A7" s="24"/>
       <c r="B7" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C7" s="22"/>
-      <c r="D7" s="25"/>
+      <c r="D7" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
       <c r="J7" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K7" s="25"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
       <c r="P7" s="24"/>
@@ -2600,8 +2733,8 @@
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
       <c r="V7" s="24"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="50"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="28"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
@@ -2613,21 +2746,23 @@
     <row r="8" spans="1:31" ht="15" customHeight="1">
       <c r="A8" s="24"/>
       <c r="B8" s="22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C8" s="22"/>
-      <c r="D8" s="25"/>
+      <c r="D8" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="26"/>
       <c r="J8" s="22" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K8" s="25"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="28"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
       <c r="P8" s="24"/>
@@ -2637,8 +2772,8 @@
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="50"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="28"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="24"/>
       <c r="AA8" s="24"/>
@@ -2650,21 +2785,23 @@
     <row r="9" spans="1:31" ht="15" customHeight="1">
       <c r="A9" s="24"/>
       <c r="B9" s="22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C9" s="22"/>
-      <c r="D9" s="25"/>
+      <c r="D9" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="26"/>
       <c r="J9" s="22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K9" s="25"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
       <c r="P9" s="24"/>
@@ -2674,8 +2811,8 @@
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="50"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="28"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
@@ -2687,21 +2824,23 @@
     <row r="10" spans="1:31" ht="15" customHeight="1">
       <c r="A10" s="24"/>
       <c r="B10" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C10" s="22"/>
-      <c r="D10" s="25"/>
+      <c r="D10" s="22" t="s">
+        <v>64</v>
+      </c>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="26"/>
       <c r="J10" s="22" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K10" s="25"/>
-      <c r="L10" s="50"/>
-      <c r="M10" s="50"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="24"/>
@@ -2711,8 +2850,8 @@
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="50"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="28"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="24"/>
       <c r="AA10" s="24"/>
@@ -2733,8 +2872,8 @@
       <c r="I11" s="26"/>
       <c r="J11" s="22"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
       <c r="P11" s="24"/>
@@ -2744,8 +2883,8 @@
       <c r="T11" s="24"/>
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="50"/>
+      <c r="W11" s="27"/>
+      <c r="X11" s="28"/>
       <c r="Y11" s="25"/>
       <c r="Z11" s="24"/>
       <c r="AA11" s="24"/>
@@ -2766,8 +2905,8 @@
       <c r="I12" s="26"/>
       <c r="J12" s="22"/>
       <c r="K12" s="25"/>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
       <c r="P12" s="24"/>
@@ -2777,8 +2916,8 @@
       <c r="T12" s="24"/>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="50"/>
+      <c r="W12" s="27"/>
+      <c r="X12" s="28"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="24"/>
       <c r="AA12" s="24"/>
@@ -2790,11 +2929,11 @@
     <row r="13" spans="1:31" ht="15" customHeight="1">
       <c r="A13" s="24"/>
       <c r="B13" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="25" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -2826,9 +2965,13 @@
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="25"/>
+      <c r="B14" s="25" t="s">
+        <v>89</v>
+      </c>
       <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+      <c r="D14" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
@@ -2859,9 +3002,13 @@
     </row>
     <row r="15" spans="1:31" ht="15" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="25"/>
+      <c r="B15" s="25" t="s">
+        <v>90</v>
+      </c>
       <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
+      <c r="D15" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
@@ -2892,9 +3039,13 @@
     </row>
     <row r="16" spans="1:31" ht="15" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="25"/>
+      <c r="B16" s="25" t="s">
+        <v>91</v>
+      </c>
       <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="D16" s="25" t="s">
+        <v>74</v>
+      </c>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>

--- a/authorityList/DHARMA_PSNAuthorityTemplate_V01.xlsx
+++ b/authorityList/DHARMA_PSNAuthorityTemplate_V01.xlsx
@@ -165,12 +165,36 @@
         </r>
       </text>
     </comment>
+    <comment ref="M5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>manu francis:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+OK for dynastic affiliation like this? Or: Pallava king$</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
   <si>
     <t>Fields group</t>
   </si>
@@ -449,13 +473,49 @@
   </si>
   <si>
     <t>Possibility to give information (free text) about a person's period of activity. Could be used for a biographic.</t>
+  </si>
+  <si>
+    <t>Vasantapriya</t>
+  </si>
+  <si>
+    <t>Skandasena</t>
+  </si>
+  <si>
+    <t>Narendra</t>
+  </si>
+  <si>
+    <t>tfaPallava020</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>pallava000007</t>
+  </si>
+  <si>
+    <t>pallava000008</t>
+  </si>
+  <si>
+    <t>pallava000009</t>
+  </si>
+  <si>
+    <t>pallava000010</t>
+  </si>
+  <si>
+    <t>pallava000011</t>
+  </si>
+  <si>
+    <t>pallava000012</t>
+  </si>
+  <si>
+    <t>(B)rammamaṅkalavaṉ cellaṉ civadāsa¡n!&lt;ṉ&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -508,6 +568,23 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="10">
@@ -986,7 +1063,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1112,6 +1189,19 @@
     <xf numFmtId="49" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2266,10 +2356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV16"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="14.85" customHeight="1"/>
@@ -2578,7 +2668,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15" customHeight="1">
+    <row r="5" spans="1:31" ht="14.25" customHeight="1">
       <c r="A5" s="21"/>
       <c r="B5" s="22" t="s">
         <v>62</v>
@@ -2589,7 +2679,9 @@
       <c r="D5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="22"/>
+      <c r="E5" s="57">
+        <v>43937</v>
+      </c>
       <c r="F5" s="22" t="s">
         <v>63</v>
       </c>
@@ -2602,13 +2694,13 @@
       <c r="I5" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="K5" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="L5" s="52" t="s">
         <v>77</v>
       </c>
       <c r="M5" s="22" t="s">
@@ -2668,18 +2760,20 @@
       <c r="D6" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="57">
+        <v>43937</v>
+      </c>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="26"/>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="25" t="s">
+      <c r="K6" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="52" t="s">
         <v>77</v>
       </c>
       <c r="M6" s="22" t="s">
@@ -2713,16 +2807,22 @@
       <c r="D7" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="57">
+        <v>43937</v>
+      </c>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="26"/>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="28"/>
+      <c r="K7" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>77</v>
+      </c>
       <c r="M7" s="28"/>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -2733,7 +2833,9 @@
       <c r="T7" s="24"/>
       <c r="U7" s="24"/>
       <c r="V7" s="24"/>
-      <c r="W7" s="27"/>
+      <c r="W7" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="X7" s="28"/>
       <c r="Y7" s="25"/>
       <c r="Z7" s="24"/>
@@ -2752,16 +2854,22 @@
       <c r="D8" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="57">
+        <v>43937</v>
+      </c>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="26"/>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="28"/>
+      <c r="K8" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>77</v>
+      </c>
       <c r="M8" s="28"/>
       <c r="N8" s="25"/>
       <c r="O8" s="25"/>
@@ -2772,7 +2880,9 @@
       <c r="T8" s="24"/>
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
-      <c r="W8" s="27"/>
+      <c r="W8" s="21" t="s">
+        <v>69</v>
+      </c>
       <c r="X8" s="28"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="24"/>
@@ -2791,16 +2901,22 @@
       <c r="D9" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="25"/>
+      <c r="E9" s="57">
+        <v>43937</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="26"/>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="28"/>
+      <c r="K9" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="52" t="s">
+        <v>77</v>
+      </c>
       <c r="M9" s="28"/>
       <c r="N9" s="25"/>
       <c r="O9" s="25"/>
@@ -2811,7 +2927,9 @@
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
-      <c r="W9" s="27"/>
+      <c r="W9" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="X9" s="28"/>
       <c r="Y9" s="25"/>
       <c r="Z9" s="24"/>
@@ -2830,16 +2948,22 @@
       <c r="D10" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="25"/>
+      <c r="E10" s="57">
+        <v>43937</v>
+      </c>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="26"/>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="28"/>
+      <c r="K10" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="55" t="s">
+        <v>97</v>
+      </c>
       <c r="M10" s="28"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
@@ -2850,7 +2974,9 @@
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
-      <c r="W10" s="27"/>
+      <c r="W10" s="21" t="s">
+        <v>96</v>
+      </c>
       <c r="X10" s="28"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="24"/>
@@ -2862,17 +2988,19 @@
     </row>
     <row r="11" spans="1:31" ht="15" customHeight="1">
       <c r="A11" s="24"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="26"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="28"/>
+      <c r="J11" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
       <c r="M11" s="28"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -2895,17 +3023,19 @@
     </row>
     <row r="12" spans="1:31" ht="15" customHeight="1">
       <c r="A12" s="24"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="26"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="28"/>
+      <c r="J12" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="54"/>
+      <c r="L12" s="55"/>
       <c r="M12" s="28"/>
       <c r="N12" s="25"/>
       <c r="O12" s="25"/>
@@ -2928,22 +3058,20 @@
     </row>
     <row r="13" spans="1:31" ht="15" customHeight="1">
       <c r="A13" s="24"/>
-      <c r="B13" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25" t="s">
-        <v>74</v>
-      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="26"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
+      <c r="J13" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="54"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="28"/>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="24"/>
@@ -2953,8 +3081,8 @@
       <c r="T13" s="24"/>
       <c r="U13" s="24"/>
       <c r="V13" s="24"/>
-      <c r="W13" s="24"/>
-      <c r="X13" s="25"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="28"/>
       <c r="Y13" s="25"/>
       <c r="Z13" s="24"/>
       <c r="AA13" s="24"/>
@@ -2965,22 +3093,20 @@
     </row>
     <row r="14" spans="1:31" ht="15" customHeight="1">
       <c r="A14" s="24"/>
-      <c r="B14" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25" t="s">
-        <v>74</v>
-      </c>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="26"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
+      <c r="J14" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="K14" s="54"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="28"/>
       <c r="N14" s="25"/>
       <c r="O14" s="25"/>
       <c r="P14" s="24"/>
@@ -2990,8 +3116,8 @@
       <c r="T14" s="24"/>
       <c r="U14" s="24"/>
       <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" s="25"/>
+      <c r="W14" s="27"/>
+      <c r="X14" s="28"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="24"/>
       <c r="AA14" s="24"/>
@@ -3002,22 +3128,20 @@
     </row>
     <row r="15" spans="1:31" ht="15" customHeight="1">
       <c r="A15" s="24"/>
-      <c r="B15" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25" t="s">
-        <v>74</v>
-      </c>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="26"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
+      <c r="J15" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="K15" s="54"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="25"/>
       <c r="O15" s="25"/>
       <c r="P15" s="24"/>
@@ -3027,8 +3151,8 @@
       <c r="T15" s="24"/>
       <c r="U15" s="24"/>
       <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="25"/>
+      <c r="W15" s="27"/>
+      <c r="X15" s="28"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="24"/>
       <c r="AA15" s="24"/>
@@ -3039,22 +3163,20 @@
     </row>
     <row r="16" spans="1:31" ht="15" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25" t="s">
-        <v>74</v>
-      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="26"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
+      <c r="J16" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K16" s="54"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="28"/>
       <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="24"/>
@@ -3064,8 +3186,8 @@
       <c r="T16" s="24"/>
       <c r="U16" s="24"/>
       <c r="V16" s="24"/>
-      <c r="W16" s="24"/>
-      <c r="X16" s="25"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="28"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="24"/>
       <c r="AA16" s="24"/>
@@ -3073,6 +3195,253 @@
       <c r="AC16" s="25"/>
       <c r="AD16" s="25"/>
       <c r="AE16" s="25"/>
+    </row>
+    <row r="17" spans="1:31" ht="15" customHeight="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
+      <c r="U17" s="24"/>
+      <c r="V17" s="24"/>
+      <c r="W17" s="27"/>
+      <c r="X17" s="28"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="24"/>
+      <c r="AA17" s="24"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+    </row>
+    <row r="18" spans="1:31" ht="15" customHeight="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="27"/>
+      <c r="X18" s="28"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="24"/>
+      <c r="AA18" s="24"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+    </row>
+    <row r="19" spans="1:31" ht="15" customHeight="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="24"/>
+      <c r="V19" s="24"/>
+      <c r="W19" s="27"/>
+      <c r="X19" s="28"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="24"/>
+      <c r="AA19" s="24"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+    </row>
+    <row r="20" spans="1:31" ht="15" customHeight="1">
+      <c r="A20" s="24"/>
+      <c r="B20" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="24"/>
+      <c r="AA20" s="24"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+    </row>
+    <row r="21" spans="1:31" ht="15" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
+      <c r="U21" s="24"/>
+      <c r="V21" s="24"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="24"/>
+      <c r="AA21" s="24"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+    </row>
+    <row r="22" spans="1:31" ht="15" customHeight="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
+      <c r="U22" s="24"/>
+      <c r="V22" s="24"/>
+      <c r="W22" s="24"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="24"/>
+      <c r="AA22" s="24"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+    </row>
+    <row r="23" spans="1:31" ht="15" customHeight="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="25"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="25"/>
+      <c r="N23" s="25"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+      <c r="U23" s="24"/>
+      <c r="V23" s="24"/>
+      <c r="W23" s="24"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="24"/>
+      <c r="AA23" s="24"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3088,10 +3457,10 @@
     <mergeCell ref="W1:AB1"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageSetup scale="72" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <legacyDrawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>